--- a/random_us_places.xlsx
+++ b/random_us_places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/482865a369521d6c/Desktop/Courses/Computation eng and data analytics/Simufection-V02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2nem\Desktop\Courses\1.001 Computation &amp; Data Science\Simufection-V02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_08B55AA4DB67140E62355476580146B9B88F873E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{036925FC-D19C-4FB0-AC3C-71EE52917F23}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AB7A95-4FA6-49BF-8279-C2272E2C30AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Place</t>
   </si>
@@ -43,16 +43,16 @@
     <t>Mobility</t>
   </si>
   <si>
-    <t>North Lori, OK</t>
+    <t>Greenport, IN</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>South Alexandertown, MP</t>
-  </si>
-  <si>
-    <t>West Monicaborough, MH</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Mcmillanmouth, LA</t>
   </si>
 </sst>
 </file>
@@ -108,12 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,10 +128,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,22 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -477,22 +465,22 @@
       <c r="F2">
         <v>0.06</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>37.751267913575518</v>
+        <v>46.620315854417299</v>
       </c>
       <c r="C3">
-        <v>-82.08863801765483</v>
+        <v>-101.9935088704533</v>
       </c>
       <c r="D3">
-        <v>4187907</v>
+        <v>3549376</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -500,31 +488,8 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>38.769158588442238</v>
-      </c>
-      <c r="C4">
-        <v>-88.83419743570137</v>
-      </c>
-      <c r="D4">
-        <v>9907832</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+      <c r="G3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/random_us_places.xlsx
+++ b/random_us_places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/482865a369521d6c/Desktop/Courses/Computation eng and data analytics/Simufection-V02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_08B55AA4DB67140E62355476580146B9B88F873E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{036925FC-D19C-4FB0-AC3C-71EE52917F23}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_08B55AA4DB67140E62355476580146B9B88F873E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{102D94BB-FC33-43B9-B57D-3363FF702A03}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Place</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>West Monicaborough, MH</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,7 +498,7 @@
         <v>4187907</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -524,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/random_us_places.xlsx
+++ b/random_us_places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/482865a369521d6c/Desktop/Courses/Computation eng and data analytics/Simufection-V02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2nem\Desktop\Courses\1.001 Computation &amp; Data Science\Simufection-V02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_08B5B0D49D52700F6235547658D9867885138703" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B466CEA-4263-498D-9415-F0316A0C9C75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7E3E2F-A493-4FB2-9C45-1E6B370B8517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Place</t>
   </si>
@@ -46,18 +46,21 @@
     <t>Louisville, KY</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Jacksonville, FL</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Austin, TX</t>
   </si>
   <si>
     <t>Omaha, NE</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Chicago, IL</t>
   </si>
   <si>
@@ -74,6 +77,36 @@
   </si>
   <si>
     <t>Phoenix, AZ</t>
+  </si>
+  <si>
+    <t>Fresno, CA</t>
+  </si>
+  <si>
+    <t>Sacramento, CA</t>
+  </si>
+  <si>
+    <t>Oklahoma City, OK</t>
+  </si>
+  <si>
+    <t>Mesa, AZ</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Minneapolis, MN</t>
+  </si>
+  <si>
+    <t>Tampa, FL</t>
+  </si>
+  <si>
+    <t>Baltimore, MD</t>
   </si>
 </sst>
 </file>
@@ -149,10 +182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,18 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -488,18 +517,18 @@
         <v>17221</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>30.3322</v>
@@ -511,18 +540,18 @@
         <v>16021</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
       </c>
       <c r="B4">
         <v>30.267199999999999</v>
@@ -534,18 +563,18 @@
         <v>13622</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>41.256500000000003</v>
@@ -560,15 +589,15 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>41.878100000000003</v>
@@ -580,18 +609,18 @@
         <v>18948</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>36.169899999999998</v>
@@ -603,18 +632,18 @@
         <v>11641</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>38.8339</v>
@@ -626,18 +655,18 @@
         <v>14984</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>35.084400000000002</v>
@@ -649,18 +678,18 @@
         <v>14353</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>42.331400000000002</v>
@@ -672,18 +701,18 @@
         <v>18622</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="F10">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>33.448399999999999</v>
@@ -695,13 +724,243 @@
         <v>17250</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>36.7378</v>
+      </c>
+      <c r="C12">
+        <v>-119.7871</v>
+      </c>
+      <c r="D12">
+        <v>14187</v>
+      </c>
+      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>38.581600000000002</v>
+      </c>
+      <c r="C13">
+        <v>-121.4944</v>
+      </c>
+      <c r="D13">
+        <v>12659</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>35.467599999999997</v>
+      </c>
+      <c r="C14">
+        <v>-97.516400000000004</v>
+      </c>
+      <c r="D14">
+        <v>19781</v>
+      </c>
+      <c r="E14">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>33.4223</v>
+      </c>
+      <c r="C15">
+        <v>-111.83150000000001</v>
+      </c>
+      <c r="D15">
+        <v>12956</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>39.739199999999997</v>
+      </c>
+      <c r="C16">
+        <v>-104.9903</v>
+      </c>
+      <c r="D16">
+        <v>12251</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>32.715699999999998</v>
+      </c>
+      <c r="C17">
+        <v>-117.1611</v>
+      </c>
+      <c r="D17">
+        <v>14420</v>
+      </c>
+      <c r="E17">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>35.2271</v>
+      </c>
+      <c r="C18">
+        <v>-80.843100000000007</v>
+      </c>
+      <c r="D18">
+        <v>17108</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>44.977800000000002</v>
+      </c>
+      <c r="C19">
+        <v>-93.265000000000001</v>
+      </c>
+      <c r="D19">
+        <v>11071</v>
+      </c>
+      <c r="E19">
+        <v>60</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>27.950600000000001</v>
+      </c>
+      <c r="C20">
+        <v>-82.4572</v>
+      </c>
+      <c r="D20">
+        <v>15251</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>39.290399999999998</v>
+      </c>
+      <c r="C21">
+        <v>-76.612200000000001</v>
+      </c>
+      <c r="D21">
+        <v>17012</v>
+      </c>
+      <c r="E21">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
